--- a/CAESCIR/SimiliarityQuantifier/input/cleaned Novel26_SZ.xlsx
+++ b/CAESCIR/SimiliarityQuantifier/input/cleaned Novel26_SZ.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sammy\Desktop\cleanedNoveli_SZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josh\Documents\FIU-Programs-main\CAESCIR\SimiliarityQuantifier\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316A01A3-7770-48DA-B60A-3916A88107B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EA6385-2197-4040-B5C1-8CD4C6E9E2A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NRC labeled novel260" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="461">
   <si>
     <t>sentence</t>
   </si>
@@ -1149,9 +1149,6 @@
   </si>
   <si>
     <t>loved</t>
-  </si>
-  <si>
-    <t>Label137</t>
   </si>
   <si>
     <t>lowered</t>
@@ -1973,9 +1970,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71032ADC-6ECD-47E9-B6D5-D37B59615B58}" name="Table1" displayName="Table1" ref="A1:DB196" totalsRowShown="0">
-  <autoFilter ref="A1:DB196" xr:uid="{D42AC292-BB23-43A8-A650-1BF719E5DEC8}"/>
-  <tableColumns count="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71032ADC-6ECD-47E9-B6D5-D37B59615B58}" name="Table1" displayName="Table1" ref="A1:DA196" totalsRowShown="0">
+  <autoFilter ref="A1:DA196" xr:uid="{D42AC292-BB23-43A8-A650-1BF719E5DEC8}"/>
+  <tableColumns count="105">
     <tableColumn id="1" xr3:uid="{B4337C7D-E708-4C7F-8357-5704874C3A2E}" name="sentence" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{CC1077FE-B9B8-4D52-B68B-031C486BB9E3}" name="Character1"/>
     <tableColumn id="3" xr3:uid="{416A68C2-991E-4E9C-AB4C-3D9C26CF325D}" name="Emotion Span1"/>
@@ -2081,7 +2078,6 @@
     <tableColumn id="103" xr3:uid="{33A5BA00-99E8-464F-BC86-6C7928940ADA}" name="Label134"/>
     <tableColumn id="104" xr3:uid="{E2036AD4-519A-4DA4-B8F6-4EF517DD4455}" name="Label135"/>
     <tableColumn id="105" xr3:uid="{8574C57F-D50F-464E-980B-1444DAB1A639}" name="Label136"/>
-    <tableColumn id="106" xr3:uid="{8405434B-CA1A-47EC-A1BA-5F5803DB5C1A}" name="Label137"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2384,10 +2380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DB196"/>
+  <dimension ref="A1:DA196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="S199" sqref="S199"/>
+    <sheetView tabSelected="1" topLeftCell="CK1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="DB1" sqref="DB1:DB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -2425,7 +2421,7 @@
     <col min="100" max="105" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2741,21 +2737,18 @@
       <c r="DA1" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="2" spans="1:106" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>109</v>
       </c>
@@ -2799,12 +2792,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>114</v>
       </c>
@@ -2833,12 +2826,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="8" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>359</v>
       </c>
@@ -2885,42 +2878,42 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="11" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="14" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="15" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="16" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>122</v>
       </c>
@@ -3124,7 +3117,7 @@
         <v>363</v>
       </c>
       <c r="C39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D39" t="s">
         <v>108</v>
@@ -3133,7 +3126,7 @@
         <v>364</v>
       </c>
       <c r="K39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L39" t="s">
         <v>108</v>
@@ -3142,7 +3135,7 @@
         <v>363</v>
       </c>
       <c r="S39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="T39" t="s">
         <v>112</v>
@@ -3184,7 +3177,7 @@
         <v>363</v>
       </c>
       <c r="C42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D42" t="s">
         <v>111</v>
@@ -3196,7 +3189,7 @@
         <v>363</v>
       </c>
       <c r="K42" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L42" t="s">
         <v>108</v>
@@ -3221,19 +3214,19 @@
         <v>112</v>
       </c>
       <c r="J44" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K44" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L44" t="s">
         <v>108</v>
       </c>
       <c r="R44" t="s">
+        <v>378</v>
+      </c>
+      <c r="S44" t="s">
         <v>379</v>
-      </c>
-      <c r="S44" t="s">
-        <v>380</v>
       </c>
       <c r="T44" t="s">
         <v>117</v>
@@ -3274,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="C48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D48" t="s">
         <v>108</v>
@@ -3308,7 +3301,7 @@
         <v>353</v>
       </c>
       <c r="C53" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D53" t="s">
         <v>117</v>
@@ -3319,10 +3312,10 @@
         <v>157</v>
       </c>
       <c r="B54" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C54" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D54" t="s">
         <v>111</v>
@@ -3331,10 +3324,10 @@
         <v>108</v>
       </c>
       <c r="J54" t="s">
+        <v>385</v>
+      </c>
+      <c r="K54" t="s">
         <v>386</v>
-      </c>
-      <c r="K54" t="s">
-        <v>387</v>
       </c>
       <c r="L54" t="s">
         <v>120</v>
@@ -3353,7 +3346,7 @@
         <v>159</v>
       </c>
       <c r="B56" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C56" t="s">
         <v>160</v>
@@ -3470,10 +3463,10 @@
         <v>177</v>
       </c>
       <c r="B68" t="s">
+        <v>390</v>
+      </c>
+      <c r="C68" t="s">
         <v>391</v>
-      </c>
-      <c r="C68" t="s">
-        <v>392</v>
       </c>
       <c r="D68" t="s">
         <v>116</v>
@@ -3505,7 +3498,7 @@
         <v>361</v>
       </c>
       <c r="C69" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D69" t="s">
         <v>116</v>
@@ -3523,7 +3516,7 @@
         <v>353</v>
       </c>
       <c r="K69" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L69" t="s">
         <v>111</v>
@@ -3537,7 +3530,7 @@
         <v>361</v>
       </c>
       <c r="C70" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D70" t="s">
         <v>116</v>
@@ -3564,7 +3557,7 @@
         <v>362</v>
       </c>
       <c r="S70" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="T70" t="s">
         <v>117</v>
@@ -3581,7 +3574,7 @@
         <v>353</v>
       </c>
       <c r="C71" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D71" t="s">
         <v>107</v>
@@ -3605,7 +3598,7 @@
         <v>361</v>
       </c>
       <c r="S71" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="T71" t="s">
         <v>116</v>
@@ -3634,7 +3627,7 @@
         <v>353</v>
       </c>
       <c r="K72" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L72" t="s">
         <v>111</v>
@@ -3673,10 +3666,10 @@
         <v>187</v>
       </c>
       <c r="B75" t="s">
+        <v>402</v>
+      </c>
+      <c r="C75" t="s">
         <v>403</v>
-      </c>
-      <c r="C75" t="s">
-        <v>404</v>
       </c>
       <c r="D75" t="s">
         <v>116</v>
@@ -3691,7 +3684,7 @@
         <v>107</v>
       </c>
       <c r="J75" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K75" t="s">
         <v>188</v>
@@ -3703,7 +3696,7 @@
         <v>117</v>
       </c>
       <c r="R75" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="S75" t="s">
         <v>189</v>
@@ -3736,10 +3729,10 @@
         <v>192</v>
       </c>
       <c r="B78" t="s">
+        <v>404</v>
+      </c>
+      <c r="C78" t="s">
         <v>405</v>
-      </c>
-      <c r="C78" t="s">
-        <v>406</v>
       </c>
       <c r="D78" t="s">
         <v>116</v>
@@ -3761,7 +3754,7 @@
         <v>194</v>
       </c>
       <c r="B80" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C80" t="s">
         <v>141</v>
@@ -3788,7 +3781,7 @@
         <v>353</v>
       </c>
       <c r="C83" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D83" t="s">
         <v>117</v>
@@ -3805,7 +3798,7 @@
         <v>199</v>
       </c>
       <c r="B84" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C84" t="s">
         <v>200</v>
@@ -3887,13 +3880,13 @@
         <v>367</v>
       </c>
       <c r="C89" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D89" t="s">
         <v>120</v>
       </c>
       <c r="J89" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K89" t="s">
         <v>205</v>
@@ -3913,7 +3906,7 @@
         <v>357</v>
       </c>
       <c r="C90" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D90" t="s">
         <v>116</v>
@@ -3931,7 +3924,7 @@
         <v>357</v>
       </c>
       <c r="K90" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L90" t="s">
         <v>116</v>
@@ -3951,7 +3944,7 @@
         <v>353</v>
       </c>
       <c r="C91" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D91" t="s">
         <v>116</v>
@@ -3966,19 +3959,19 @@
         <v>120</v>
       </c>
       <c r="J91" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K91" t="s">
+        <v>410</v>
+      </c>
+      <c r="L91" t="s">
+        <v>107</v>
+      </c>
+      <c r="R91" t="s">
+        <v>392</v>
+      </c>
+      <c r="S91" t="s">
         <v>411</v>
-      </c>
-      <c r="L91" t="s">
-        <v>107</v>
-      </c>
-      <c r="R91" t="s">
-        <v>393</v>
-      </c>
-      <c r="S91" t="s">
-        <v>412</v>
       </c>
       <c r="T91" t="s">
         <v>110</v>
@@ -3998,7 +3991,7 @@
         <v>367</v>
       </c>
       <c r="C92" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D92" t="s">
         <v>116</v>
@@ -4013,7 +4006,7 @@
         <v>363</v>
       </c>
       <c r="K92" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L92" t="s">
         <v>116</v>
@@ -4028,7 +4021,7 @@
         <v>353</v>
       </c>
       <c r="S92" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="T92" t="s">
         <v>116</v>
@@ -4084,7 +4077,7 @@
         <v>363</v>
       </c>
       <c r="K96" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L96" t="s">
         <v>116</v>
@@ -4144,7 +4137,7 @@
         <v>353</v>
       </c>
       <c r="C102" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D102" t="s">
         <v>108</v>
@@ -4158,7 +4151,7 @@
         <v>353</v>
       </c>
       <c r="C103" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D103" t="s">
         <v>116</v>
@@ -4191,7 +4184,7 @@
         <v>353</v>
       </c>
       <c r="C106" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D106" t="s">
         <v>116</v>
@@ -4203,7 +4196,7 @@
         <v>353</v>
       </c>
       <c r="K106" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L106" t="s">
         <v>116</v>
@@ -4227,7 +4220,7 @@
         <v>353</v>
       </c>
       <c r="C109" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D109" t="s">
         <v>116</v>
@@ -4253,7 +4246,7 @@
         <v>353</v>
       </c>
       <c r="C110" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D110" t="s">
         <v>112</v>
@@ -4270,7 +4263,7 @@
         <v>353</v>
       </c>
       <c r="C111" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D111" t="s">
         <v>117</v>
@@ -4298,7 +4291,7 @@
         <v>353</v>
       </c>
       <c r="C113" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D113" t="s">
         <v>116</v>
@@ -4315,10 +4308,10 @@
         <v>229</v>
       </c>
       <c r="B114" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C114" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D114" t="s">
         <v>116</v>
@@ -4329,10 +4322,10 @@
         <v>230</v>
       </c>
       <c r="B115" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C115" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D115" t="s">
         <v>112</v>
@@ -4348,7 +4341,7 @@
         <v>232</v>
       </c>
       <c r="B117" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C117" t="s">
         <v>141</v>
@@ -4400,7 +4393,7 @@
         <v>358</v>
       </c>
       <c r="C122" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D122" t="s">
         <v>112</v>
@@ -4419,7 +4412,7 @@
         <v>358</v>
       </c>
       <c r="C124" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D124" t="s">
         <v>116</v>
@@ -4464,7 +4457,7 @@
         <v>353</v>
       </c>
       <c r="C127" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D127" t="s">
         <v>116</v>
@@ -4475,10 +4468,10 @@
         <v>244</v>
       </c>
       <c r="B128" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C128" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D128" t="s">
         <v>107</v>
@@ -4495,7 +4488,7 @@
         <v>367</v>
       </c>
       <c r="C129" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D129" t="s">
         <v>107</v>
@@ -4538,7 +4531,7 @@
         <v>107</v>
       </c>
       <c r="J131" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K131" t="s">
         <v>118</v>
@@ -4553,7 +4546,7 @@
         <v>107</v>
       </c>
       <c r="R131" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="S131" t="s">
         <v>183</v>
@@ -4570,10 +4563,10 @@
         <v>250</v>
       </c>
       <c r="B132" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C132" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D132" t="s">
         <v>116</v>
@@ -4613,7 +4606,7 @@
         <v>367</v>
       </c>
       <c r="C134" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D134" t="s">
         <v>120</v>
@@ -4629,7 +4622,7 @@
         <v>253</v>
       </c>
       <c r="B136" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C136" t="s">
         <v>254</v>
@@ -4641,7 +4634,7 @@
         <v>111</v>
       </c>
       <c r="J136" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K136" t="s">
         <v>255</v>
@@ -4675,7 +4668,7 @@
         <v>353</v>
       </c>
       <c r="C138" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D138" t="s">
         <v>108</v>
@@ -4696,7 +4689,7 @@
         <v>260</v>
       </c>
       <c r="B141" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C141" t="s">
         <v>222</v>
@@ -4723,7 +4716,7 @@
         <v>353</v>
       </c>
       <c r="C144" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D144" t="s">
         <v>117</v>
@@ -4739,7 +4732,7 @@
         <v>265</v>
       </c>
       <c r="B146" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C146" t="s">
         <v>222</v>
@@ -4748,10 +4741,10 @@
         <v>117</v>
       </c>
       <c r="J146" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K146" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L146" t="s">
         <v>116</v>
@@ -4773,10 +4766,10 @@
         <v>267</v>
       </c>
       <c r="B148" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C148" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D148" t="s">
         <v>116</v>
@@ -4842,7 +4835,7 @@
         <v>272</v>
       </c>
       <c r="B151" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C151" t="s">
         <v>372</v>
@@ -4870,7 +4863,7 @@
         <v>107</v>
       </c>
       <c r="J153" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K153" t="s">
         <v>372</v>
@@ -4879,7 +4872,7 @@
         <v>117</v>
       </c>
       <c r="R153" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S153" t="s">
         <v>141</v>
@@ -4896,7 +4889,7 @@
         <v>353</v>
       </c>
       <c r="C154" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D154" t="s">
         <v>110</v>
@@ -4907,7 +4900,7 @@
         <v>277</v>
       </c>
       <c r="B155" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C155" t="s">
         <v>278</v>
@@ -4931,16 +4924,16 @@
         <v>281</v>
       </c>
       <c r="B158" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C158" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D158" t="s">
         <v>107</v>
       </c>
       <c r="J158" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K158" t="s">
         <v>248</v>
@@ -4974,13 +4967,13 @@
         <v>353</v>
       </c>
       <c r="C160" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D160" t="s">
         <v>107</v>
       </c>
       <c r="J160" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K160" t="s">
         <v>284</v>
@@ -4992,7 +4985,7 @@
         <v>367</v>
       </c>
       <c r="S160" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="T160" t="s">
         <v>116</v>
@@ -5007,7 +5000,7 @@
         <v>367</v>
       </c>
       <c r="AA160" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AB160" t="s">
         <v>116</v>
@@ -5033,7 +5026,7 @@
         <v>353</v>
       </c>
       <c r="C161" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D161" t="s">
         <v>116</v>
@@ -5068,7 +5061,7 @@
         <v>353</v>
       </c>
       <c r="C165" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D165" t="s">
         <v>117</v>
@@ -5085,7 +5078,7 @@
         <v>353</v>
       </c>
       <c r="C166" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D166" t="s">
         <v>116</v>
@@ -5107,7 +5100,7 @@
         <v>292</v>
       </c>
       <c r="B168" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C168" t="s">
         <v>195</v>
@@ -5132,10 +5125,10 @@
         <v>341</v>
       </c>
       <c r="B170" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C170" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D170" t="s">
         <v>116</v>
@@ -5191,7 +5184,7 @@
         <v>353</v>
       </c>
       <c r="K174" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L174" t="s">
         <v>116</v>
@@ -5267,7 +5260,7 @@
         <v>357</v>
       </c>
       <c r="C179" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D179" t="s">
         <v>117</v>
@@ -5323,7 +5316,7 @@
         <v>353</v>
       </c>
       <c r="C186" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D186" t="s">
         <v>107</v>
@@ -5340,7 +5333,7 @@
         <v>308</v>
       </c>
       <c r="B187" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C187" t="s">
         <v>246</v>
@@ -5359,10 +5352,10 @@
         <v>350</v>
       </c>
       <c r="B189" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C189" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D189" t="s">
         <v>120</v>
